--- a/ComplexityCounter.xlsx
+++ b/ComplexityCounter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kayla\Documents\NMTCODE\NMT-REU-2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0305DC29-D7BB-4DAD-B83B-FB74F31719FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD52D7D-F7BE-4232-B2B0-38605C58CB48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{24F7B4B9-9A58-4CF0-B078-3F90A3B4E8F6}"/>
   </bookViews>
@@ -1705,6 +1705,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Growth</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> in Complexity of Greedy Algorithm with Increasing Number of Trees </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1768,10 +1798,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$O$2:$O$15</c:f>
+              <c:f>Sheet1!$O$2:$O$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -1813,16 +1843,28 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$P$2:$P$15</c:f>
+              <c:f>Sheet1!$P$2:$P$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -1863,7 +1905,19 @@
                   <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>105</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1926,13 +1980,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$O$2:$O$15</c15:sqref>
+                          <c15:sqref>Sheet1!$O$2:$O$19</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="14"/>
+                      <c:ptCount val="18"/>
                       <c:pt idx="0">
                         <c:v>2</c:v>
                       </c:pt>
@@ -1974,6 +2028,18 @@
                       </c:pt>
                       <c:pt idx="13">
                         <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>19</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2053,6 +2119,66 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Trees</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2118,6 +2244,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Complexity</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4316,8 +4497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{669A2299-EF2F-450A-AABD-B93976C1B88E}">
   <dimension ref="A1:P64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="67" zoomScaleNormal="67" workbookViewId="0">
-      <selection activeCell="S45" sqref="S45"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="72" zoomScaleNormal="67" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4676,7 +4857,7 @@
         <v>15</v>
       </c>
       <c r="P15">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -4696,7 +4877,7 @@
         <v>16</v>
       </c>
       <c r="P16">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
@@ -4716,7 +4897,7 @@
         <v>17</v>
       </c>
       <c r="P17">
-        <v>95</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
@@ -4736,7 +4917,7 @@
         <v>18</v>
       </c>
       <c r="P18">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
@@ -4754,6 +4935,9 @@
       </c>
       <c r="O19">
         <v>19</v>
+      </c>
+      <c r="P19">
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
